--- a/Assets/Excel/PlayerTable.xlsx
+++ b/Assets/Excel/PlayerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\FlowerGarden\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{820DCB1D-2CEE-4719-8D49-A4B8F739D3AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79EE07-7CFB-4A8A-A0F5-0188CC75E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="44530" yWindow="2520" windowWidth="28800" windowHeight="15370" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerTable" sheetId="1" r:id="rId1"/>
@@ -24,8 +24,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>박관홍</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{D02F2836-5132-4DA7-9ED5-F9EBC835843C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>1=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">보라
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>2=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">빨간
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>3=</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>녹색</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>string</t>
   </si>
@@ -128,6 +201,18 @@
   </si>
   <si>
     <t>Character/Player3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 타입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -138,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +246,19 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -508,25 +606,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB45ABD2-614E-46B7-9465-64E7A16B2051}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.9140625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="7" width="17.9140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="18.08203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19" style="1" customWidth="1"/>
+    <col min="6" max="8" width="17.9140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -534,51 +633,57 @@
         <v>21</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="C2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -603,8 +708,11 @@
       <c r="H3" s="1">
         <v>3</v>
       </c>
+      <c r="I3" s="1">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -612,25 +720,28 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="2">
         <v>300000000001</v>
       </c>
@@ -638,25 +749,28 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
       <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="2">
         <v>300000000002</v>
       </c>
@@ -664,25 +778,28 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
         <v>40</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="2">
         <v>300000000003</v>
       </c>
@@ -690,13 +807,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1">
         <v>50</v>
       </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -704,11 +821,14 @@
       <c r="G7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="2">
         <v>300000000004</v>
       </c>
@@ -716,25 +836,28 @@
         <v>8</v>
       </c>
       <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
         <v>60</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>300000000005</v>
       </c>
@@ -742,26 +865,30 @@
         <v>9</v>
       </c>
       <c r="C9" s="1">
+        <v>2</v>
+      </c>
+      <c r="D9" s="1">
         <v>70</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>5</v>
       </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
       <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Excel/PlayerTable.xlsx
+++ b/Assets/Excel/PlayerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitFork\FlowerGarden\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF79EE07-7CFB-4A8A-A0F5-0188CC75E7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC86127-995B-458F-AEA5-4BA33E21EE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44530" yWindow="2520" windowWidth="28800" windowHeight="15370" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{0F7F82BC-4018-46BF-A794-A47DD42B1CF2}"/>
   </bookViews>
   <sheets>
     <sheet name="PlayerTable" sheetId="1" r:id="rId1"/>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Dice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Skill1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,6 +209,10 @@
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -610,7 +610,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.45"/>
@@ -630,28 +630,28 @@
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
@@ -662,13 +662,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -720,25 +720,25 @@
         <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
@@ -755,7 +755,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
@@ -784,7 +784,7 @@
         <v>40</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
@@ -813,7 +813,7 @@
         <v>50</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
@@ -842,7 +842,7 @@
         <v>60</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
         <v>0</v>
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
@@ -871,7 +871,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
